--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/2017/OneRate.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/2017/OneRate.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="118">
   <si>
     <t>CUSTOMER_REFERENCE</t>
   </si>
@@ -374,13 +374,16 @@
   </si>
   <si>
     <t>Revenue+Labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save Label </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -487,12 +490,6 @@
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -903,236 +900,236 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -1141,42 +1138,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -1236,7 +1233,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1249,18 +1246,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1268,116 +1265,116 @@
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="106" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="106" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="111" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="111" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2095,84 +2092,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI6"/>
+  <dimension ref="A1:BJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1"/>
-    <col min="12" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="29.140625" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" customWidth="1"/>
-    <col min="20" max="20" width="25.140625" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" customWidth="1"/>
-    <col min="22" max="22" width="36.5703125" customWidth="1"/>
-    <col min="23" max="23" width="31.140625" customWidth="1"/>
-    <col min="24" max="24" width="16.42578125" customWidth="1"/>
-    <col min="25" max="25" width="19" customWidth="1"/>
-    <col min="26" max="26" width="18" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" customWidth="1"/>
-    <col min="28" max="28" width="19" customWidth="1"/>
-    <col min="29" max="29" width="34.42578125" customWidth="1"/>
-    <col min="30" max="30" width="16.140625" customWidth="1"/>
-    <col min="31" max="31" width="21.140625" customWidth="1"/>
-    <col min="32" max="34" width="25.28515625" customWidth="1"/>
-    <col min="35" max="36" width="22.5703125" customWidth="1"/>
-    <col min="37" max="37" width="17.140625" customWidth="1"/>
-    <col min="38" max="41" width="18.140625" customWidth="1"/>
-    <col min="42" max="42" width="27.42578125" customWidth="1"/>
-    <col min="43" max="43" width="19.140625" customWidth="1"/>
-    <col min="44" max="44" width="22.42578125" customWidth="1"/>
-    <col min="45" max="45" width="21.28515625" customWidth="1"/>
-    <col min="46" max="47" width="19" customWidth="1"/>
-    <col min="48" max="48" width="21.5703125" customWidth="1"/>
-    <col min="49" max="49" width="17.140625" customWidth="1"/>
-    <col min="50" max="50" width="26.5703125" customWidth="1"/>
-    <col min="51" max="51" width="19.5703125" customWidth="1"/>
-    <col min="52" max="52" width="31.5703125" customWidth="1"/>
-    <col min="53" max="53" width="18.42578125" customWidth="1"/>
-    <col min="54" max="54" width="24.5703125" customWidth="1"/>
-    <col min="55" max="55" width="22.7109375" customWidth="1"/>
-    <col min="56" max="56" width="18.42578125" customWidth="1"/>
-    <col min="57" max="57" width="19.42578125" customWidth="1"/>
-    <col min="58" max="58" width="23.5703125" customWidth="1"/>
-    <col min="59" max="59" width="29" customWidth="1"/>
-    <col min="60" max="60" width="32.7109375" customWidth="1"/>
-    <col min="61" max="61" width="8.85546875" style="4"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="13" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="29.140625" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" customWidth="1"/>
+    <col min="21" max="21" width="25.140625" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" customWidth="1"/>
+    <col min="23" max="23" width="36.5703125" customWidth="1"/>
+    <col min="24" max="24" width="31.140625" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" customWidth="1"/>
+    <col min="26" max="26" width="19" customWidth="1"/>
+    <col min="27" max="27" width="18" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" customWidth="1"/>
+    <col min="29" max="29" width="19" customWidth="1"/>
+    <col min="30" max="30" width="34.42578125" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" customWidth="1"/>
+    <col min="32" max="32" width="21.140625" customWidth="1"/>
+    <col min="33" max="35" width="25.28515625" customWidth="1"/>
+    <col min="36" max="37" width="22.5703125" customWidth="1"/>
+    <col min="38" max="38" width="17.140625" customWidth="1"/>
+    <col min="39" max="42" width="18.140625" customWidth="1"/>
+    <col min="43" max="43" width="27.42578125" customWidth="1"/>
+    <col min="44" max="44" width="19.140625" customWidth="1"/>
+    <col min="45" max="45" width="22.42578125" customWidth="1"/>
+    <col min="46" max="46" width="21.28515625" customWidth="1"/>
+    <col min="47" max="48" width="19" customWidth="1"/>
+    <col min="49" max="49" width="21.5703125" customWidth="1"/>
+    <col min="50" max="50" width="17.140625" customWidth="1"/>
+    <col min="51" max="51" width="26.5703125" customWidth="1"/>
+    <col min="52" max="52" width="19.5703125" customWidth="1"/>
+    <col min="53" max="53" width="31.5703125" customWidth="1"/>
+    <col min="54" max="54" width="18.42578125" customWidth="1"/>
+    <col min="55" max="55" width="24.5703125" customWidth="1"/>
+    <col min="56" max="56" width="22.7109375" customWidth="1"/>
+    <col min="57" max="57" width="18.42578125" customWidth="1"/>
+    <col min="58" max="58" width="19.42578125" customWidth="1"/>
+    <col min="59" max="59" width="23.5703125" customWidth="1"/>
+    <col min="60" max="60" width="29" customWidth="1"/>
+    <col min="61" max="61" width="32.7109375" customWidth="1"/>
+    <col min="62" max="62" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="12" customFormat="1" ht="53.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:62" s="12" customFormat="1" ht="53.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>70</v>
@@ -2184,7 +2181,7 @@
         <v>70</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>57</v>
@@ -2196,7 +2193,7 @@
         <v>57</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>71</v>
@@ -2211,7 +2208,7 @@
         <v>71</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="T1" s="6" t="s">
         <v>37</v>
@@ -2223,7 +2220,7 @@
         <v>37</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>72</v>
@@ -2238,25 +2235,25 @@
         <v>72</v>
       </c>
       <c r="AB1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="AF1" s="8" t="s">
         <v>73</v>
       </c>
       <c r="AG1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH1" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="AI1" s="6" t="s">
         <v>61</v>
@@ -2283,7 +2280,7 @@
         <v>61</v>
       </c>
       <c r="AQ1" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AR1" s="6" t="s">
         <v>60</v>
@@ -2304,25 +2301,25 @@
         <v>60</v>
       </c>
       <c r="AX1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY1" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="AZ1" s="6" t="s">
         <v>35</v>
       </c>
       <c r="BA1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB1" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="BC1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="BD1" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BE1" s="6" t="s">
         <v>14</v>
@@ -2330,459 +2327,468 @@
       <c r="BF1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BG1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BI1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
     </row>
-    <row r="2" spans="1:61" s="3" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" s="3" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="Z2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="AA2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AB2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AG2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BG2" s="25" t="s">
+      <c r="BH2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:61" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:62" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="C3" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="13">
+      <c r="M3" s="13">
         <v>9012704839</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="R3" s="13">
         <v>33301</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="S3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="U3" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="13">
+      <c r="V3" s="13">
         <v>9018549236</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="W3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="W3" s="26" t="s">
+      <c r="X3" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="Y3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Z3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="13">
+      <c r="AA3" s="13">
         <v>99701</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AB3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AC3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AD3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AE3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AF3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AG3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" s="13">
+      <c r="AH3" s="13">
         <v>9762308621</v>
       </c>
-      <c r="AH3" s="13" t="s">
+      <c r="AI3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="AI3" s="13" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AJ3" s="13" t="s">
+      <c r="AK3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AK3" s="13" t="s">
+      <c r="AL3" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="AL3" s="13">
+      <c r="AM3" s="13">
         <v>9012635448</v>
       </c>
-      <c r="AM3" s="13">
+      <c r="AN3" s="13">
         <v>2033469</v>
-      </c>
-      <c r="AN3" s="13">
-        <v>9762308621</v>
       </c>
       <c r="AO3" s="13">
         <v>9762308621</v>
       </c>
-      <c r="AP3" s="27" t="s">
+      <c r="AP3" s="13">
+        <v>9762308621</v>
+      </c>
+      <c r="AQ3" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="AQ3" s="13" t="s">
+      <c r="AR3" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AR3" s="13" t="s">
+      <c r="AS3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AS3" s="13" t="s">
+      <c r="AT3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="13">
+      <c r="AU3" s="13">
         <v>99701</v>
       </c>
-      <c r="AU3" s="13" t="s">
+      <c r="AV3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="13" t="s">
+      <c r="AW3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AW3" s="13">
+      <c r="AX3" s="13">
         <v>0</v>
       </c>
-      <c r="AX3" s="13" t="s">
+      <c r="AY3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AY3" s="13" t="s">
+      <c r="AZ3" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="AZ3" s="13">
-        <v>1</v>
       </c>
       <c r="BA3" s="13">
         <v>1</v>
       </c>
-      <c r="BB3" s="13" t="s">
+      <c r="BB3" s="13">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="BC3" s="13">
+      <c r="BD3" s="13">
         <v>25</v>
       </c>
-      <c r="BD3" s="13"/>
       <c r="BE3" s="13"/>
       <c r="BF3" s="13"/>
-      <c r="BG3" s="13" t="s">
+      <c r="BG3" s="13"/>
+      <c r="BH3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="BH3" s="16" t="s">
+      <c r="BI3" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:61" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="31" t="s">
+    <row r="4" spans="1:62" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>9012704839</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="5">
         <v>33301</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="U4" s="5">
+      <c r="V4" s="5">
         <v>9018549236</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="X4" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="AA4" s="5">
         <v>99701</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AE4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
@@ -2792,8 +2798,8 @@
       <c r="AM4" s="5"/>
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="17"/>
       <c r="AR4" s="5"/>
       <c r="AS4" s="5"/>
       <c r="AT4" s="5"/>
@@ -2801,124 +2807,127 @@
       <c r="AV4" s="5"/>
       <c r="AW4" s="5"/>
       <c r="AX4" s="5"/>
-      <c r="AY4" s="5" t="s">
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="AZ4" s="5">
-        <v>1</v>
       </c>
       <c r="BA4" s="5">
         <v>1</v>
       </c>
-      <c r="BB4" s="5" t="s">
+      <c r="BB4" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BC4" s="5">
+      <c r="BD4" s="5">
         <v>25</v>
       </c>
-      <c r="BD4" s="5"/>
       <c r="BE4" s="5"/>
       <c r="BF4" s="5"/>
-      <c r="BG4" s="5" t="s">
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="BH4" s="16" t="s">
+      <c r="BI4" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:61" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="1:62" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>9012704839</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <v>33301</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="U5" s="5">
+      <c r="V5" s="5">
         <v>9018549236</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="X5" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Y5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Z5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="AA5" s="5">
         <v>10010</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AB5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AC5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AD5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
@@ -2928,8 +2937,8 @@
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
       <c r="AO5" s="5"/>
-      <c r="AP5" s="17"/>
-      <c r="AQ5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="17"/>
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
       <c r="AT5" s="5"/>
@@ -2937,126 +2946,129 @@
       <c r="AV5" s="5"/>
       <c r="AW5" s="5"/>
       <c r="AX5" s="5"/>
-      <c r="AY5" s="5" t="s">
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="AZ5" s="5">
-        <v>1</v>
       </c>
       <c r="BA5" s="5">
         <v>1</v>
       </c>
-      <c r="BB5" s="5" t="s">
+      <c r="BB5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BC5" s="5">
+      <c r="BD5" s="5">
         <v>10</v>
       </c>
-      <c r="BD5" s="5"/>
       <c r="BE5" s="5"/>
       <c r="BF5" s="5"/>
-      <c r="BG5" s="5" t="s">
+      <c r="BG5" s="5"/>
+      <c r="BH5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="BH5" s="16" t="s">
+      <c r="BI5" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:61" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:62" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="C6" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="D6" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="E6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="F6" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="G6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="H6" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="I6" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="J6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="K6" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="L6" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="28">
+      <c r="M6" s="28">
         <v>9012704839</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="N6" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="O6" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="28" t="s">
+      <c r="P6" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="Q6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="R6" s="28">
         <v>33301</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="S6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="28" t="s">
+      <c r="T6" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="T6" s="28" t="s">
+      <c r="U6" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="U6" s="28">
+      <c r="V6" s="28">
         <v>9018549236</v>
       </c>
-      <c r="V6" s="28" t="s">
+      <c r="W6" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="W6" s="28" t="s">
+      <c r="X6" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="X6" s="28" t="s">
+      <c r="Y6" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="Y6" s="28" t="s">
+      <c r="Z6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="Z6" s="28">
+      <c r="AA6" s="28">
         <v>99701</v>
       </c>
-      <c r="AA6" s="28" t="s">
+      <c r="AB6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AB6" s="28" t="s">
+      <c r="AC6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AC6" s="28" t="s">
+      <c r="AD6" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="AD6" s="28" t="s">
+      <c r="AE6" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="AE6" s="28" t="s">
+      <c r="AF6" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="AF6" s="28"/>
       <c r="AG6" s="28"/>
       <c r="AH6" s="28"/>
       <c r="AI6" s="28"/>
@@ -3066,8 +3078,8 @@
       <c r="AM6" s="28"/>
       <c r="AN6" s="28"/>
       <c r="AO6" s="28"/>
-      <c r="AP6" s="34"/>
-      <c r="AQ6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="34"/>
       <c r="AR6" s="28"/>
       <c r="AS6" s="28"/>
       <c r="AT6" s="28"/>
@@ -3075,45 +3087,46 @@
       <c r="AV6" s="28"/>
       <c r="AW6" s="28"/>
       <c r="AX6" s="28"/>
-      <c r="AY6" s="28" t="s">
+      <c r="AY6" s="28"/>
+      <c r="AZ6" s="28" t="s">
         <v>92</v>
-      </c>
-      <c r="AZ6" s="28">
-        <v>1</v>
       </c>
       <c r="BA6" s="28">
         <v>1</v>
       </c>
-      <c r="BB6" s="28" t="s">
+      <c r="BB6" s="28">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="BC6" s="28">
+      <c r="BD6" s="28">
         <v>10</v>
       </c>
-      <c r="BD6" s="28"/>
       <c r="BE6" s="28"/>
       <c r="BF6" s="28"/>
-      <c r="BG6" s="28" t="s">
+      <c r="BG6" s="28"/>
+      <c r="BH6" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="BH6" s="35" t="s">
+      <c r="BI6" s="35" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1"/>
-    <hyperlink ref="M4" r:id="rId2"/>
-    <hyperlink ref="V3" r:id="rId3"/>
-    <hyperlink ref="V4" r:id="rId4"/>
-    <hyperlink ref="AP3" r:id="rId5"/>
-    <hyperlink ref="M5" r:id="rId6"/>
-    <hyperlink ref="V5" r:id="rId7"/>
-    <hyperlink ref="M6" r:id="rId8"/>
-    <hyperlink ref="V6" r:id="rId9"/>
+    <hyperlink ref="N3" r:id="rId1"/>
+    <hyperlink ref="N4" r:id="rId2"/>
+    <hyperlink ref="W3" r:id="rId3"/>
+    <hyperlink ref="W4" r:id="rId4"/>
+    <hyperlink ref="AQ3" r:id="rId5"/>
+    <hyperlink ref="N5" r:id="rId6"/>
+    <hyperlink ref="W5" r:id="rId7"/>
+    <hyperlink ref="N6" r:id="rId8"/>
+    <hyperlink ref="W6" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
